--- a/app/COVID19master/data/states_beta.xlsx
+++ b/app/COVID19master/data/states_beta.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chaitra Gopalappa\Documents\Box Sync\Paper\COVID-19\COVID19-master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatapudi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E415D5-E102-D34A-AECE-41A3A5695198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3225F6D8-AF8F-9544-9703-A7A4A318287E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -469,16 +470,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98164EF-7103-264E-B72B-929A95C7D0F9}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,72 +496,228 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.81</v>
+      </c>
+      <c r="C2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.81</v>
+      </c>
+      <c r="C3">
+        <v>0.16</v>
+      </c>
+      <c r="D3">
+        <v>1.2</v>
+      </c>
+      <c r="E3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.69</v>
+      </c>
+      <c r="C4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.01</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.67</v>
+      </c>
+      <c r="C5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D5">
+        <v>1.2</v>
+      </c>
+      <c r="E5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.75</v>
+      </c>
+      <c r="C6">
+        <v>0.25</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.77</v>
+      </c>
+      <c r="C7">
+        <v>0.04</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.75</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.27</v>
+      </c>
+      <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.66</v>
+      </c>
+      <c r="C10">
+        <v>0.18</v>
+      </c>
+      <c r="D10">
+        <v>1.2</v>
+      </c>
+      <c r="E10">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.7</v>
+      </c>
+      <c r="C11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.75</v>
+      </c>
+      <c r="C12">
+        <v>0.15</v>
+      </c>
+      <c r="D12">
+        <v>1.2</v>
+      </c>
+      <c r="E12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.81</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E13">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.75</v>
+      </c>
+      <c r="C14">
+        <v>1E-3</v>
+      </c>
+      <c r="D14">
+        <v>0.7</v>
+      </c>
+      <c r="E14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -577,52 +734,160 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+      <c r="C16">
+        <v>1E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.6</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>0.2</v>
+      </c>
+      <c r="D17">
+        <v>0.9</v>
+      </c>
+      <c r="E17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.66</v>
+      </c>
+      <c r="C18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.9</v>
+      </c>
+      <c r="C19">
+        <v>0.23</v>
+      </c>
+      <c r="D19">
+        <v>1.2</v>
+      </c>
+      <c r="E19">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.8</v>
+      </c>
+      <c r="C20">
+        <v>0.23</v>
+      </c>
+      <c r="D20">
+        <v>1.3</v>
+      </c>
+      <c r="E20">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.6</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <v>1.4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.54</v>
+      </c>
+      <c r="C22">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="D22">
+        <v>0.9</v>
+      </c>
+      <c r="E22">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C23">
+        <v>1E-4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.86</v>
+      </c>
+      <c r="C24">
+        <v>0.03</v>
+      </c>
+      <c r="D24">
+        <v>1.3</v>
+      </c>
+      <c r="E24">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>

--- a/app/COVID19master/data/states_beta.xlsx
+++ b/app/COVID19master/data/states_beta.xlsx
@@ -5,35 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatapudi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Box/COVID19/UMass Analysis/COVID_sim_UMASS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E415D5-E102-D34A-AECE-41A3A5695198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63B423C-FEF5-B14C-9661-1F9159F71C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3225F6D8-AF8F-9544-9703-A7A4A318287E}"/>
+    <workbookView xWindow="11700" yWindow="7540" windowWidth="16200" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>State</t>
   </si>
@@ -120,6 +112,9 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>UMASS</t>
   </si>
 </sst>
 </file>
@@ -470,14 +465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98164EF-7103-264E-B72B-929A95C7D0F9}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -500,222 +495,66 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0.81</v>
-      </c>
-      <c r="C2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D2">
-        <v>0.9</v>
-      </c>
-      <c r="E2">
-        <v>1.1000000000000001</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>0.81</v>
-      </c>
-      <c r="C3">
-        <v>0.16</v>
-      </c>
-      <c r="D3">
-        <v>1.2</v>
-      </c>
-      <c r="E3">
-        <v>1.3</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0.69</v>
-      </c>
-      <c r="C4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.01</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>0.67</v>
-      </c>
-      <c r="C5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D5">
-        <v>1.2</v>
-      </c>
-      <c r="E5">
-        <v>1.2</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0.75</v>
-      </c>
-      <c r="C6">
-        <v>0.25</v>
-      </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-      <c r="E6">
-        <v>1.2</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>0.77</v>
-      </c>
-      <c r="C7">
-        <v>0.04</v>
-      </c>
-      <c r="D7">
-        <v>0.8</v>
-      </c>
-      <c r="E7">
-        <v>1.1000000000000001</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0.75</v>
-      </c>
-      <c r="C8">
-        <v>0.2</v>
-      </c>
-      <c r="D8">
-        <v>1.5</v>
-      </c>
-      <c r="E8">
-        <v>1.1000000000000001</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0.27</v>
-      </c>
-      <c r="D9">
-        <v>0.9</v>
-      </c>
-      <c r="E9">
-        <v>1.6</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>0.66</v>
-      </c>
-      <c r="C10">
-        <v>0.18</v>
-      </c>
-      <c r="D10">
-        <v>1.2</v>
-      </c>
-      <c r="E10">
-        <v>1.1000000000000001</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>0.7</v>
-      </c>
-      <c r="C11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D11">
-        <v>0.7</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>0.75</v>
-      </c>
-      <c r="C12">
-        <v>0.15</v>
-      </c>
-      <c r="D12">
-        <v>1.2</v>
-      </c>
-      <c r="E12">
-        <v>1.4</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>0.81</v>
-      </c>
-      <c r="C13">
-        <v>0.01</v>
-      </c>
-      <c r="D13">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E13">
-        <v>1.1499999999999999</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.75</v>
-      </c>
-      <c r="C14">
-        <v>1E-3</v>
-      </c>
-      <c r="D14">
-        <v>0.7</v>
-      </c>
-      <c r="E14">
-        <v>0.8</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -738,158 +577,67 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>0.8</v>
-      </c>
-      <c r="C16">
-        <v>1E-3</v>
-      </c>
-      <c r="D16">
-        <v>0.6</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>0.5</v>
-      </c>
-      <c r="C17">
-        <v>0.2</v>
-      </c>
-      <c r="D17">
-        <v>0.9</v>
-      </c>
-      <c r="E17">
-        <v>1.1000000000000001</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>0.66</v>
-      </c>
-      <c r="C18">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>0.9</v>
-      </c>
-      <c r="C19">
-        <v>0.23</v>
-      </c>
-      <c r="D19">
-        <v>1.2</v>
-      </c>
-      <c r="E19">
-        <v>1.2</v>
-      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>0.8</v>
-      </c>
-      <c r="C20">
-        <v>0.23</v>
-      </c>
-      <c r="D20">
-        <v>1.3</v>
-      </c>
-      <c r="E20">
-        <v>1.7</v>
-      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
-        <v>0.6</v>
-      </c>
-      <c r="C21">
-        <v>0.2</v>
-      </c>
-      <c r="D21">
-        <v>1.4</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
-        <v>0.54</v>
-      </c>
-      <c r="C22">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="D22">
-        <v>0.9</v>
-      </c>
-      <c r="E22">
-        <v>1.4</v>
-      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C23">
-        <v>1E-4</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
-        <v>0.86</v>
-      </c>
-      <c r="C24">
-        <v>0.03</v>
-      </c>
-      <c r="D24">
-        <v>1.3</v>
-      </c>
-      <c r="E24">
-        <v>1.3</v>
-      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>3.6</v>
+      </c>
+      <c r="C26">
+        <v>0.01</v>
+      </c>
+      <c r="D26">
+        <v>1.5</v>
+      </c>
+      <c r="E26">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
